--- a/backend/web/export_file/template_d6.xlsx
+++ b/backend/web/export_file/template_d6.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="102">
   <si>
     <t>作業時間実績：個人別サマリー</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">Task #36852 </t>
-  </si>
-  <si>
-    <t>Leave evening</t>
   </si>
   <si>
     <t>Learning php laravel</t>
@@ -850,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1169,6 +1166,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,11 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,16 +2057,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="123"/>
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="127"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2079,23 +2077,23 @@
       <c r="N1" s="3">
         <v>42916</v>
       </c>
-      <c r="O1" s="124" t="s">
+      <c r="O1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2180,39 +2178,39 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127" t="s">
+      <c r="C5" s="131"/>
+      <c r="D5" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="127" t="s">
+      <c r="I5" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="127" t="s">
+      <c r="J5" s="131" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="130" t="s">
+      <c r="M5" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="130" t="s">
+      <c r="N5" s="134" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="1"/>
@@ -2222,19 +2220,19 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2242,19 +2240,19 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="7.5" customHeight="1">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
       <c r="L7" s="30"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
       <c r="O7" s="1"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
@@ -3077,10 +3075,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="121"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="59" t="s">
         <v>29</v>
       </c>
@@ -3113,10 +3111,10 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="121"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="59" t="s">
         <v>45</v>
       </c>
@@ -3149,10 +3147,10 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" ht="24.75" customHeight="1">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="121"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="66"/>
       <c r="D27" s="60" t="e">
         <f ca="1">SUM(D8:D23)</f>
@@ -3184,11 +3182,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="A1:H1"/>
@@ -3202,6 +3195,11 @@
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="M5:M7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G20 G22:G23">
     <cfRule type="expression" dxfId="35" priority="3">
@@ -3255,12 +3253,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
@@ -3323,11 +3321,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
@@ -3479,24 +3477,24 @@
       <c r="AO4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="133" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="77">
         <f>$B$3</f>
         <v>42887</v>
@@ -3623,16 +3621,16 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="79">
         <f t="shared" ref="K6:AO6" si="1">K$5</f>
         <v>42887</v>
@@ -3759,16 +3757,16 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="7.5" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="80" t="s">
         <v>65</v>
       </c>
@@ -3807,20 +3805,20 @@
       <c r="A8" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="139">
+      <c r="C8" s="125"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140">
         <f t="shared" ref="I8:I16" si="2">SUM(K8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="85"/>
@@ -3857,20 +3855,20 @@
       <c r="A9" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="139">
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="123"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
@@ -3907,20 +3905,20 @@
       <c r="A10" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="139">
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="123"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
       <c r="M10" s="91"/>
@@ -3957,20 +3955,20 @@
       <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="139">
+      <c r="C11" s="125"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="123"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
       <c r="M11" s="91"/>
@@ -4007,20 +4005,20 @@
       <c r="A12" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="139">
+      <c r="C12" s="125"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="91"/>
       <c r="L12" s="91"/>
       <c r="M12" s="91"/>
@@ -4055,18 +4053,18 @@
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1">
       <c r="A13" s="94"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="139">
+      <c r="B13" s="138"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
       <c r="M13" s="86"/>
@@ -4101,18 +4099,18 @@
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
       <c r="A14" s="83"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="139">
+      <c r="B14" s="138"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="123"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="86"/>
       <c r="L14" s="90"/>
       <c r="M14" s="86"/>
@@ -4147,18 +4145,18 @@
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
       <c r="A15" s="89"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="139">
+      <c r="B15" s="138"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="123"/>
+      <c r="J15" s="127"/>
       <c r="K15" s="91"/>
       <c r="L15" s="91"/>
       <c r="M15" s="91"/>
@@ -4193,18 +4191,18 @@
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
       <c r="A16" s="93"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="139">
+      <c r="B16" s="147"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="123"/>
+      <c r="J16" s="127"/>
       <c r="K16" s="91"/>
       <c r="L16" s="86"/>
       <c r="M16" s="91"/>
@@ -4239,13 +4237,13 @@
     </row>
     <row r="17" spans="1:41" ht="12" customHeight="1">
       <c r="A17" s="99"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="100"/>
       <c r="J17" s="100"/>
       <c r="K17" s="101"/>
@@ -4281,23 +4279,23 @@
       <c r="AO17" s="103"/>
     </row>
     <row r="18" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="145" t="s">
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="147">
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="148">
         <f t="shared" ref="I18:I19" si="3">SUM(K18:AO18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="129"/>
+      <c r="J18" s="133"/>
       <c r="K18" s="104">
         <f t="shared" ref="K18:AO18" si="4">SUM(K8:K17)</f>
         <v>0</v>
@@ -4424,21 +4422,21 @@
       </c>
     </row>
     <row r="19" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A19" s="135"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="145" t="s">
+      <c r="A19" s="123"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="147">
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="104">
         <f t="shared" ref="K19:AO19" si="5">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K17),0)</f>
         <v>0</v>
@@ -4608,23 +4606,23 @@
       <c r="AO20" s="1"/>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="136" t="s">
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="151">
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="152">
         <f t="shared" ref="I21:I25" si="6">SUM(K21:AO21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="125"/>
+      <c r="J21" s="129"/>
       <c r="K21" s="105">
         <f t="shared" ref="K21:AO21" si="7">SUMIFS(K$8:K$17,$A$8:$A$17,$E21)</f>
         <v>0</v>
@@ -4751,19 +4749,19 @@
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="151">
+      <c r="A22" s="129"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="125"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="105">
         <f t="shared" ref="K22:AO22" si="8">SUMIFS(K$8:K$17,$A$8:$A$17,$E22)</f>
         <v>0</v>
@@ -4890,19 +4888,19 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="151">
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="129"/>
       <c r="K23" s="105">
         <f t="shared" ref="K23:AO23" si="9">SUMIFS(K$8:K$17,$A$8:$A$17,$E23)</f>
         <v>0</v>
@@ -5029,19 +5027,19 @@
       </c>
     </row>
     <row r="24" spans="1:41" ht="15" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="151">
+      <c r="A24" s="129"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24" s="125"/>
+      <c r="J24" s="129"/>
       <c r="K24" s="105">
         <f t="shared" ref="K24:AO24" si="10">SUMIFS(K$8:K$17,$A$8:$A$17,$E24)</f>
         <v>0</v>
@@ -5168,19 +5166,19 @@
       </c>
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="148">
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J25" s="125"/>
+      <c r="J25" s="129"/>
       <c r="K25" s="106">
         <f t="shared" ref="K25:AO25" si="11">SUMIFS(K$8:K$17,$A$8:$A$17,$E25)</f>
         <v>0</v>
@@ -5315,11 +5313,11 @@
       <c r="F26" s="53"/>
       <c r="G26" s="53"/>
       <c r="H26" s="107"/>
-      <c r="I26" s="149">
+      <c r="I26" s="150">
         <f>SUM(I21:I25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="125"/>
+      <c r="J26" s="129"/>
       <c r="K26" s="108">
         <f t="shared" ref="K26:AO26" si="12">SUM(K21:K25)</f>
         <v>0</v>
@@ -5557,12 +5555,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
@@ -5625,11 +5623,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
@@ -5781,24 +5779,24 @@
       <c r="AO4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="133" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="77">
         <f>$B$3</f>
         <v>42887</v>
@@ -5925,16 +5923,16 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="79">
         <f t="shared" ref="K6:AO6" si="1">K$5</f>
         <v>42887</v>
@@ -6061,16 +6059,16 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="7.5" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="80" t="s">
         <v>65</v>
       </c>
@@ -6109,20 +6107,20 @@
       <c r="A8" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="139">
+      <c r="C8" s="125"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140">
         <f t="shared" ref="I8:I17" si="2">SUM(K8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="85"/>
@@ -6159,20 +6157,20 @@
       <c r="A9" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="139">
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="123"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
@@ -6209,20 +6207,20 @@
       <c r="A10" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="139">
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="123"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
       <c r="M10" s="91"/>
@@ -6259,20 +6257,20 @@
       <c r="A11" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="139">
+      <c r="C11" s="125"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="123"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
       <c r="M11" s="91"/>
@@ -6309,18 +6307,18 @@
       <c r="A12" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="139">
+      <c r="B12" s="138"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
       <c r="M12" s="91"/>
@@ -6355,18 +6353,18 @@
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1">
       <c r="A13" s="89"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="139">
+      <c r="B13" s="138"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
       <c r="M13" s="91"/>
@@ -6401,18 +6399,18 @@
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
       <c r="A14" s="94"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="139">
+      <c r="B14" s="138"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="123"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="86"/>
       <c r="L14" s="86"/>
       <c r="M14" s="86"/>
@@ -6447,18 +6445,18 @@
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
       <c r="A15" s="83"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="139">
+      <c r="B15" s="138"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="123"/>
+      <c r="J15" s="127"/>
       <c r="K15" s="86"/>
       <c r="L15" s="90"/>
       <c r="M15" s="86"/>
@@ -6493,18 +6491,18 @@
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
       <c r="A16" s="89"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="139">
+      <c r="B16" s="138"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="123"/>
+      <c r="J16" s="127"/>
       <c r="K16" s="91"/>
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
@@ -6539,18 +6537,18 @@
     </row>
     <row r="17" spans="1:41" ht="22.5" customHeight="1">
       <c r="A17" s="93"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="139">
+      <c r="B17" s="147"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="123"/>
+      <c r="J17" s="127"/>
       <c r="K17" s="91"/>
       <c r="L17" s="86"/>
       <c r="M17" s="91"/>
@@ -6585,13 +6583,13 @@
     </row>
     <row r="18" spans="1:41" ht="12" customHeight="1">
       <c r="A18" s="99"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="100"/>
       <c r="J18" s="100"/>
       <c r="K18" s="101"/>
@@ -6627,23 +6625,23 @@
       <c r="AO18" s="103"/>
     </row>
     <row r="19" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="145" t="s">
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="147">
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="148">
         <f t="shared" ref="I19:I20" si="3">SUM(K19:AO19)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="104">
         <f t="shared" ref="K19:AO19" si="4">SUM(K8:K18)</f>
         <v>0</v>
@@ -6770,21 +6768,21 @@
       </c>
     </row>
     <row r="20" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A20" s="135"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="145" t="s">
+      <c r="A20" s="123"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="147">
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J20" s="129"/>
+      <c r="J20" s="133"/>
       <c r="K20" s="104">
         <f t="shared" ref="K20:AO20" si="5">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K18),0)</f>
         <v>0</v>
@@ -6954,21 +6952,21 @@
       <c r="AO21" s="1"/>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="151">
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="152">
         <f t="shared" ref="I22:I26" si="6">SUM(K22:AO22)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="125"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="105">
         <f t="shared" ref="K22:AO22" si="7">SUMIFS(K$8:K$18,$A$8:$A$18,$E22)</f>
         <v>0</v>
@@ -7095,19 +7093,19 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="151">
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="129"/>
       <c r="K23" s="105">
         <f t="shared" ref="K23:AO23" si="8">SUMIFS(K$8:K$18,$A$8:$A$18,$E23)</f>
         <v>0</v>
@@ -7234,19 +7232,19 @@
       </c>
     </row>
     <row r="24" spans="1:41" ht="15" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="151">
+      <c r="A24" s="129"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24" s="125"/>
+      <c r="J24" s="129"/>
       <c r="K24" s="105">
         <f t="shared" ref="K24:AO24" si="9">SUMIFS(K$8:K$18,$A$8:$A$18,$E24)</f>
         <v>0</v>
@@ -7373,21 +7371,21 @@
       </c>
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="155" t="s">
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="148">
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J25" s="125"/>
+      <c r="J25" s="129"/>
       <c r="K25" s="106">
         <f t="shared" ref="K25:AO25" si="10">SUMIFS(K$8:K$18,$A$8:$A$18,$E25)</f>
         <v>0</v>
@@ -7514,21 +7512,21 @@
       </c>
     </row>
     <row r="26" spans="1:41" ht="15" customHeight="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="155" t="s">
+      <c r="A26" s="129"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="148">
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J26" s="125"/>
+      <c r="J26" s="129"/>
       <c r="K26" s="106">
         <f t="shared" ref="K26:AO26" si="11">SUMIFS(K$8:K$18,$A$8:$A$18,$E26)</f>
         <v>0</v>
@@ -7663,11 +7661,11 @@
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
       <c r="H27" s="107"/>
-      <c r="I27" s="149">
+      <c r="I27" s="150">
         <f>SUM(I22:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="125"/>
+      <c r="J27" s="129"/>
       <c r="K27" s="108">
         <f t="shared" ref="K27:AO27" si="12">SUM(K22:K26)</f>
         <v>0</v>
@@ -7882,13 +7880,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO81"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="7" topLeftCell="K65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I8:J43"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -7907,12 +7905,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
@@ -7924,7 +7922,7 @@
         <v>51</v>
       </c>
       <c r="H1" s="68">
-        <f ca="1">I73-$J$1</f>
+        <f ca="1">I67-$J$1</f>
         <v>0</v>
       </c>
       <c r="I1" s="67" t="s">
@@ -7935,12 +7933,12 @@
         <v>0</v>
       </c>
       <c r="K1" s="70">
+        <f>ROW(A70)</f>
+        <v>70</v>
+      </c>
+      <c r="L1" s="70">
         <f>ROW(A76)</f>
         <v>76</v>
-      </c>
-      <c r="L1" s="70">
-        <f>ROW(A80)</f>
-        <v>80</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -7975,11 +7973,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
@@ -7989,9 +7987,7 @@
       <c r="G2" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="71" t="s">
-        <v>36</v>
-      </c>
+      <c r="H2" s="71"/>
       <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
@@ -8133,24 +8129,24 @@
       <c r="AO4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="133" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="77">
         <f>$B$3</f>
         <v>42887</v>
@@ -8277,16 +8273,16 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="79">
         <f t="shared" ref="K6:AO6" si="1">K$5</f>
         <v>42887</v>
@@ -8413,16 +8409,16 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="7.5" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
       <c r="M7" s="80"/>
@@ -8431,9 +8427,7 @@
       <c r="P7" s="80"/>
       <c r="Q7" s="80"/>
       <c r="R7" s="80"/>
-      <c r="S7" s="80" t="s">
-        <v>76</v>
-      </c>
+      <c r="S7" s="80"/>
       <c r="T7" s="80"/>
       <c r="U7" s="81"/>
       <c r="V7" s="81"/>
@@ -8459,15 +8453,18 @@
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1">
       <c r="A8" s="118"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="123"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140">
+        <f>SUM(K8:AO8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="127"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="85"/>
@@ -8502,15 +8499,18 @@
     </row>
     <row r="9" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="123"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140">
+        <f t="shared" ref="I9:I65" si="2">SUM(K9:AO9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="127"/>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
       <c r="M9" s="85"/>
@@ -8545,15 +8545,18 @@
     </row>
     <row r="10" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="127"/>
       <c r="K10" s="84"/>
       <c r="L10" s="84"/>
       <c r="M10" s="85"/>
@@ -8588,15 +8591,18 @@
     </row>
     <row r="11" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="123"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="127"/>
       <c r="K11" s="84"/>
       <c r="L11" s="84"/>
       <c r="M11" s="85"/>
@@ -8631,15 +8637,18 @@
     </row>
     <row r="12" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="123"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="127"/>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
       <c r="M12" s="85"/>
@@ -8674,15 +8683,18 @@
     </row>
     <row r="13" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="123"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="127"/>
       <c r="K13" s="84"/>
       <c r="L13" s="84"/>
       <c r="M13" s="85"/>
@@ -8717,15 +8729,18 @@
     </row>
     <row r="14" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="123"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="127"/>
       <c r="K14" s="84"/>
       <c r="L14" s="84"/>
       <c r="M14" s="85"/>
@@ -8760,15 +8775,18 @@
     </row>
     <row r="15" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="123"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="127"/>
       <c r="K15" s="84"/>
       <c r="L15" s="84"/>
       <c r="M15" s="85"/>
@@ -8803,15 +8821,18 @@
     </row>
     <row r="16" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="123"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="127"/>
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
       <c r="M16" s="85"/>
@@ -8846,15 +8867,18 @@
     </row>
     <row r="17" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="123"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="127"/>
       <c r="K17" s="84"/>
       <c r="L17" s="84"/>
       <c r="M17" s="85"/>
@@ -8889,15 +8913,18 @@
     </row>
     <row r="18" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="123"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="127"/>
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
       <c r="M18" s="85"/>
@@ -8932,15 +8959,18 @@
     </row>
     <row r="19" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="123"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="127"/>
       <c r="K19" s="84"/>
       <c r="L19" s="84"/>
       <c r="M19" s="85"/>
@@ -8975,15 +9005,18 @@
     </row>
     <row r="20" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="123"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="127"/>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
       <c r="M20" s="85"/>
@@ -9018,15 +9051,18 @@
     </row>
     <row r="21" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="123"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="127"/>
       <c r="K21" s="84"/>
       <c r="L21" s="84"/>
       <c r="M21" s="85"/>
@@ -9061,15 +9097,18 @@
     </row>
     <row r="22" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="123"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="127"/>
       <c r="K22" s="84"/>
       <c r="L22" s="84"/>
       <c r="M22" s="85"/>
@@ -9104,15 +9143,18 @@
     </row>
     <row r="23" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="123"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="127"/>
       <c r="K23" s="84"/>
       <c r="L23" s="84"/>
       <c r="M23" s="85"/>
@@ -9147,15 +9189,18 @@
     </row>
     <row r="24" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="123"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="127"/>
       <c r="K24" s="84"/>
       <c r="L24" s="84"/>
       <c r="M24" s="85"/>
@@ -9190,15 +9235,18 @@
     </row>
     <row r="25" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="123"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="127"/>
       <c r="K25" s="84"/>
       <c r="L25" s="84"/>
       <c r="M25" s="85"/>
@@ -9233,15 +9281,18 @@
     </row>
     <row r="26" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="123"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="127"/>
       <c r="K26" s="84"/>
       <c r="L26" s="84"/>
       <c r="M26" s="85"/>
@@ -9276,15 +9327,18 @@
     </row>
     <row r="27" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="123"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="127"/>
       <c r="K27" s="84"/>
       <c r="L27" s="84"/>
       <c r="M27" s="85"/>
@@ -9319,15 +9373,18 @@
     </row>
     <row r="28" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="123"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="127"/>
       <c r="K28" s="84"/>
       <c r="L28" s="84"/>
       <c r="M28" s="85"/>
@@ -9362,15 +9419,18 @@
     </row>
     <row r="29" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="123"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="127"/>
       <c r="K29" s="84"/>
       <c r="L29" s="84"/>
       <c r="M29" s="85"/>
@@ -9405,15 +9465,18 @@
     </row>
     <row r="30" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="123"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="127"/>
       <c r="K30" s="84"/>
       <c r="L30" s="84"/>
       <c r="M30" s="85"/>
@@ -9448,15 +9511,18 @@
     </row>
     <row r="31" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="123"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="127"/>
       <c r="K31" s="84"/>
       <c r="L31" s="84"/>
       <c r="M31" s="85"/>
@@ -9491,15 +9557,18 @@
     </row>
     <row r="32" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="123"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="127"/>
       <c r="K32" s="84"/>
       <c r="L32" s="84"/>
       <c r="M32" s="85"/>
@@ -9534,15 +9603,18 @@
     </row>
     <row r="33" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="123"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="127"/>
       <c r="K33" s="84"/>
       <c r="L33" s="84"/>
       <c r="M33" s="85"/>
@@ -9577,15 +9649,18 @@
     </row>
     <row r="34" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A34" s="118"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="123"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="127"/>
       <c r="K34" s="84"/>
       <c r="L34" s="84"/>
       <c r="M34" s="85"/>
@@ -9620,15 +9695,18 @@
     </row>
     <row r="35" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A35" s="118"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="123"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="127"/>
       <c r="K35" s="84"/>
       <c r="L35" s="84"/>
       <c r="M35" s="85"/>
@@ -9663,15 +9741,18 @@
     </row>
     <row r="36" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A36" s="118"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="123"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="127"/>
       <c r="K36" s="84"/>
       <c r="L36" s="84"/>
       <c r="M36" s="85"/>
@@ -9706,15 +9787,18 @@
     </row>
     <row r="37" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A37" s="118"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="123"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="127"/>
       <c r="K37" s="84"/>
       <c r="L37" s="84"/>
       <c r="M37" s="85"/>
@@ -9749,15 +9833,18 @@
     </row>
     <row r="38" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A38" s="118"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="123"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="127"/>
       <c r="K38" s="84"/>
       <c r="L38" s="84"/>
       <c r="M38" s="85"/>
@@ -9792,15 +9879,18 @@
     </row>
     <row r="39" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A39" s="118"/>
-      <c r="B39" s="156"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="123"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="127"/>
       <c r="K39" s="84"/>
       <c r="L39" s="84"/>
       <c r="M39" s="85"/>
@@ -9835,15 +9925,18 @@
     </row>
     <row r="40" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A40" s="118"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="123"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="127"/>
       <c r="K40" s="84"/>
       <c r="L40" s="84"/>
       <c r="M40" s="85"/>
@@ -9878,15 +9971,18 @@
     </row>
     <row r="41" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A41" s="118"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="123"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="127"/>
       <c r="K41" s="84"/>
       <c r="L41" s="84"/>
       <c r="M41" s="85"/>
@@ -9921,15 +10017,18 @@
     </row>
     <row r="42" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A42" s="118"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="123"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="127"/>
       <c r="K42" s="84"/>
       <c r="L42" s="84"/>
       <c r="M42" s="85"/>
@@ -9964,15 +10063,18 @@
     </row>
     <row r="43" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A43" s="118"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="123"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="127"/>
       <c r="K43" s="84"/>
       <c r="L43" s="84"/>
       <c r="M43" s="85"/>
@@ -10007,15 +10109,18 @@
     </row>
     <row r="44" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A44" s="118"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="123"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="127"/>
       <c r="K44" s="84"/>
       <c r="L44" s="84"/>
       <c r="M44" s="85"/>
@@ -10050,15 +10155,18 @@
     </row>
     <row r="45" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A45" s="118"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="123"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="127"/>
       <c r="K45" s="84"/>
       <c r="L45" s="84"/>
       <c r="M45" s="85"/>
@@ -10093,15 +10201,18 @@
     </row>
     <row r="46" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A46" s="118"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="123"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="127"/>
       <c r="K46" s="84"/>
       <c r="L46" s="84"/>
       <c r="M46" s="85"/>
@@ -10136,15 +10247,18 @@
     </row>
     <row r="47" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A47" s="118"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="123"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="127"/>
       <c r="K47" s="84"/>
       <c r="L47" s="84"/>
       <c r="M47" s="85"/>
@@ -10179,15 +10293,18 @@
     </row>
     <row r="48" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A48" s="118"/>
-      <c r="B48" s="156"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="123"/>
+      <c r="B48" s="157"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="127"/>
       <c r="K48" s="84"/>
       <c r="L48" s="84"/>
       <c r="M48" s="85"/>
@@ -10222,15 +10339,18 @@
     </row>
     <row r="49" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A49" s="118"/>
-      <c r="B49" s="156"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="123"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="127"/>
       <c r="K49" s="84"/>
       <c r="L49" s="84"/>
       <c r="M49" s="85"/>
@@ -10265,15 +10385,18 @@
     </row>
     <row r="50" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A50" s="118"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="123"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="127"/>
       <c r="K50" s="84"/>
       <c r="L50" s="84"/>
       <c r="M50" s="85"/>
@@ -10308,15 +10431,18 @@
     </row>
     <row r="51" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A51" s="118"/>
-      <c r="B51" s="156"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="123"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="127"/>
       <c r="K51" s="84"/>
       <c r="L51" s="84"/>
       <c r="M51" s="85"/>
@@ -10351,15 +10477,18 @@
     </row>
     <row r="52" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A52" s="118"/>
-      <c r="B52" s="156"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="123"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="127"/>
       <c r="K52" s="84"/>
       <c r="L52" s="84"/>
       <c r="M52" s="85"/>
@@ -10394,15 +10523,18 @@
     </row>
     <row r="53" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="118"/>
-      <c r="B53" s="156"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="123"/>
+      <c r="B53" s="157"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="127"/>
       <c r="K53" s="84"/>
       <c r="L53" s="84"/>
       <c r="M53" s="85"/>
@@ -10437,15 +10569,18 @@
     </row>
     <row r="54" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A54" s="118"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="138"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="123"/>
+      <c r="B54" s="157"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="127"/>
       <c r="K54" s="84"/>
       <c r="L54" s="84"/>
       <c r="M54" s="85"/>
@@ -10480,15 +10615,18 @@
     </row>
     <row r="55" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A55" s="118"/>
-      <c r="B55" s="156"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="139"/>
-      <c r="J55" s="123"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="127"/>
       <c r="K55" s="84"/>
       <c r="L55" s="84"/>
       <c r="M55" s="85"/>
@@ -10523,15 +10661,18 @@
     </row>
     <row r="56" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A56" s="118"/>
-      <c r="B56" s="156"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="123"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="127"/>
       <c r="K56" s="84"/>
       <c r="L56" s="84"/>
       <c r="M56" s="85"/>
@@ -10566,15 +10707,18 @@
     </row>
     <row r="57" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A57" s="118"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="139"/>
-      <c r="J57" s="123"/>
+      <c r="B57" s="157"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="127"/>
       <c r="K57" s="84"/>
       <c r="L57" s="84"/>
       <c r="M57" s="85"/>
@@ -10609,15 +10753,18 @@
     </row>
     <row r="58" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A58" s="118"/>
-      <c r="B58" s="156"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="123"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="123"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="127"/>
       <c r="K58" s="84"/>
       <c r="L58" s="84"/>
       <c r="M58" s="85"/>
@@ -10652,15 +10799,18 @@
     </row>
     <row r="59" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A59" s="118"/>
-      <c r="B59" s="156"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="139"/>
-      <c r="J59" s="123"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="127"/>
       <c r="K59" s="84"/>
       <c r="L59" s="84"/>
       <c r="M59" s="85"/>
@@ -10695,15 +10845,18 @@
     </row>
     <row r="60" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A60" s="118"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="123"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="127"/>
       <c r="K60" s="84"/>
       <c r="L60" s="84"/>
       <c r="M60" s="85"/>
@@ -10738,15 +10891,18 @@
     </row>
     <row r="61" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A61" s="118"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="138"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="123"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="127"/>
       <c r="K61" s="84"/>
       <c r="L61" s="84"/>
       <c r="M61" s="85"/>
@@ -10781,15 +10937,18 @@
     </row>
     <row r="62" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A62" s="118"/>
-      <c r="B62" s="156"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="123"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="127"/>
       <c r="K62" s="84"/>
       <c r="L62" s="84"/>
       <c r="M62" s="85"/>
@@ -10824,15 +10983,18 @@
     </row>
     <row r="63" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A63" s="118"/>
-      <c r="B63" s="156"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="123"/>
-      <c r="I63" s="139"/>
-      <c r="J63" s="123"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="127"/>
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
       <c r="M63" s="85"/>
@@ -10867,15 +11029,18 @@
     </row>
     <row r="64" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A64" s="118"/>
-      <c r="B64" s="156"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="138"/>
-      <c r="F64" s="121"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="123"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="123"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="127"/>
+      <c r="I64" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="127"/>
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
       <c r="M64" s="85"/>
@@ -10910,15 +11075,18 @@
     </row>
     <row r="65" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
       <c r="A65" s="118"/>
-      <c r="B65" s="156"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="123"/>
-      <c r="I65" s="139"/>
-      <c r="J65" s="123"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="127"/>
       <c r="K65" s="84"/>
       <c r="L65" s="84"/>
       <c r="M65" s="85"/>
@@ -10951,1496 +11119,1502 @@
       <c r="AN65" s="95"/>
       <c r="AO65" s="84"/>
     </row>
-    <row r="66" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A66" s="118"/>
-      <c r="B66" s="156"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="121"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="139"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="85"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="S66" s="85"/>
-      <c r="T66" s="84"/>
-      <c r="U66" s="85"/>
-      <c r="V66" s="85"/>
-      <c r="W66" s="85"/>
-      <c r="X66" s="85"/>
-      <c r="Y66" s="84"/>
-      <c r="Z66" s="85"/>
-      <c r="AA66" s="85"/>
-      <c r="AB66" s="84"/>
-      <c r="AC66" s="85"/>
-      <c r="AD66" s="85"/>
-      <c r="AE66" s="85"/>
-      <c r="AF66" s="85"/>
-      <c r="AG66" s="85"/>
-      <c r="AH66" s="85"/>
-      <c r="AI66" s="84"/>
-      <c r="AJ66" s="95"/>
-      <c r="AK66" s="95"/>
-      <c r="AL66" s="112"/>
-      <c r="AM66" s="112"/>
-      <c r="AN66" s="95"/>
-      <c r="AO66" s="84"/>
-    </row>
-    <row r="67" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A67" s="118"/>
-      <c r="B67" s="156"/>
-      <c r="C67" s="121"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="138"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="123"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="123"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="85"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="84"/>
-      <c r="S67" s="85"/>
-      <c r="T67" s="84"/>
-      <c r="U67" s="85"/>
-      <c r="V67" s="85"/>
-      <c r="W67" s="85"/>
-      <c r="X67" s="85"/>
-      <c r="Y67" s="84"/>
-      <c r="Z67" s="85"/>
-      <c r="AA67" s="85"/>
-      <c r="AB67" s="84"/>
-      <c r="AC67" s="85"/>
-      <c r="AD67" s="85"/>
-      <c r="AE67" s="85"/>
-      <c r="AF67" s="85"/>
-      <c r="AG67" s="85"/>
-      <c r="AH67" s="85"/>
-      <c r="AI67" s="84"/>
-      <c r="AJ67" s="95"/>
-      <c r="AK67" s="95"/>
-      <c r="AL67" s="112"/>
-      <c r="AM67" s="112"/>
-      <c r="AN67" s="95"/>
-      <c r="AO67" s="84"/>
-    </row>
-    <row r="68" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A68" s="118"/>
-      <c r="B68" s="156"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="123"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="123"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="85"/>
-      <c r="T68" s="84"/>
-      <c r="U68" s="85"/>
-      <c r="V68" s="85"/>
-      <c r="W68" s="85"/>
-      <c r="X68" s="85"/>
-      <c r="Y68" s="84"/>
-      <c r="Z68" s="85"/>
-      <c r="AA68" s="85"/>
-      <c r="AB68" s="84"/>
-      <c r="AC68" s="85"/>
-      <c r="AD68" s="85"/>
-      <c r="AE68" s="85"/>
-      <c r="AF68" s="85"/>
-      <c r="AG68" s="85"/>
-      <c r="AH68" s="85"/>
-      <c r="AI68" s="84"/>
-      <c r="AJ68" s="95"/>
-      <c r="AK68" s="95"/>
-      <c r="AL68" s="112"/>
-      <c r="AM68" s="112"/>
-      <c r="AN68" s="95"/>
-      <c r="AO68" s="84"/>
-    </row>
-    <row r="69" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A69" s="118"/>
-      <c r="B69" s="156"/>
-      <c r="C69" s="121"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="138"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="123"/>
-      <c r="I69" s="139"/>
-      <c r="J69" s="123"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="85"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="85"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="85"/>
-      <c r="V69" s="85"/>
-      <c r="W69" s="85"/>
-      <c r="X69" s="85"/>
-      <c r="Y69" s="84"/>
-      <c r="Z69" s="85"/>
-      <c r="AA69" s="85"/>
-      <c r="AB69" s="84"/>
-      <c r="AC69" s="85"/>
-      <c r="AD69" s="85"/>
-      <c r="AE69" s="85"/>
-      <c r="AF69" s="85"/>
-      <c r="AG69" s="85"/>
-      <c r="AH69" s="85"/>
-      <c r="AI69" s="84"/>
-      <c r="AJ69" s="95"/>
-      <c r="AK69" s="95"/>
-      <c r="AL69" s="112"/>
-      <c r="AM69" s="112"/>
-      <c r="AN69" s="95"/>
-      <c r="AO69" s="84"/>
-    </row>
-    <row r="70" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A70" s="118"/>
-      <c r="B70" s="156"/>
-      <c r="C70" s="121"/>
-      <c r="D70" s="123"/>
-      <c r="E70" s="138"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="123"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="123"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="85"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="85"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="85"/>
-      <c r="V70" s="85"/>
-      <c r="W70" s="85"/>
-      <c r="X70" s="85"/>
-      <c r="Y70" s="84"/>
-      <c r="Z70" s="85"/>
-      <c r="AA70" s="85"/>
-      <c r="AB70" s="84"/>
-      <c r="AC70" s="85"/>
-      <c r="AD70" s="85"/>
-      <c r="AE70" s="85"/>
-      <c r="AF70" s="85"/>
-      <c r="AG70" s="85"/>
-      <c r="AH70" s="85"/>
-      <c r="AI70" s="84"/>
-      <c r="AJ70" s="95"/>
-      <c r="AK70" s="95"/>
-      <c r="AL70" s="112"/>
-      <c r="AM70" s="112"/>
-      <c r="AN70" s="95"/>
-      <c r="AO70" s="84"/>
-    </row>
-    <row r="71" spans="1:41" s="119" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A71" s="118"/>
-      <c r="B71" s="156"/>
-      <c r="C71" s="121"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="138"/>
-      <c r="F71" s="121"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="123"/>
-      <c r="I71" s="139"/>
-      <c r="J71" s="123"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="85"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="85"/>
-      <c r="T71" s="84"/>
-      <c r="U71" s="85"/>
-      <c r="V71" s="85"/>
-      <c r="W71" s="85"/>
-      <c r="X71" s="85"/>
-      <c r="Y71" s="84"/>
-      <c r="Z71" s="85"/>
-      <c r="AA71" s="85"/>
-      <c r="AB71" s="84"/>
-      <c r="AC71" s="85"/>
-      <c r="AD71" s="85"/>
-      <c r="AE71" s="85"/>
-      <c r="AF71" s="85"/>
-      <c r="AG71" s="85"/>
-      <c r="AH71" s="85"/>
-      <c r="AI71" s="84"/>
-      <c r="AJ71" s="95"/>
-      <c r="AK71" s="95"/>
-      <c r="AL71" s="112"/>
-      <c r="AM71" s="112"/>
-      <c r="AN71" s="95"/>
-      <c r="AO71" s="84"/>
-    </row>
-    <row r="72" spans="1:41" ht="24.75" customHeight="1">
-      <c r="A72" s="99"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="121"/>
-      <c r="D72" s="121"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="121"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="121"/>
-      <c r="I72" s="100"/>
-      <c r="J72" s="100"/>
-      <c r="K72" s="101"/>
-      <c r="L72" s="101"/>
-      <c r="M72" s="101"/>
-      <c r="N72" s="101"/>
-      <c r="O72" s="102"/>
-      <c r="P72" s="102"/>
-      <c r="Q72" s="103"/>
-      <c r="R72" s="101"/>
-      <c r="S72" s="101"/>
-      <c r="T72" s="101"/>
-      <c r="U72" s="101"/>
-      <c r="V72" s="101"/>
-      <c r="W72" s="101"/>
-      <c r="X72" s="101"/>
-      <c r="Y72" s="101"/>
-      <c r="Z72" s="101"/>
-      <c r="AA72" s="101"/>
-      <c r="AB72" s="103"/>
-      <c r="AC72" s="101"/>
-      <c r="AD72" s="101"/>
-      <c r="AE72" s="101"/>
-      <c r="AF72" s="101"/>
-      <c r="AG72" s="101"/>
-      <c r="AH72" s="101"/>
-      <c r="AI72" s="101"/>
-      <c r="AJ72" s="101"/>
-      <c r="AK72" s="101"/>
-      <c r="AL72" s="101"/>
-      <c r="AM72" s="101"/>
-      <c r="AN72" s="101"/>
-      <c r="AO72" s="103"/>
-    </row>
-    <row r="73" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A73" s="141" t="s">
+    <row r="66" spans="1:41" ht="24.75" customHeight="1">
+      <c r="A66" s="99"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="151"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="100"/>
+      <c r="K66" s="101"/>
+      <c r="L66" s="101"/>
+      <c r="M66" s="101"/>
+      <c r="N66" s="101"/>
+      <c r="O66" s="102"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="103"/>
+      <c r="R66" s="101"/>
+      <c r="S66" s="101"/>
+      <c r="T66" s="101"/>
+      <c r="U66" s="101"/>
+      <c r="V66" s="101"/>
+      <c r="W66" s="101"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="101"/>
+      <c r="Z66" s="101"/>
+      <c r="AA66" s="101"/>
+      <c r="AB66" s="103"/>
+      <c r="AC66" s="101"/>
+      <c r="AD66" s="101"/>
+      <c r="AE66" s="101"/>
+      <c r="AF66" s="101"/>
+      <c r="AG66" s="101"/>
+      <c r="AH66" s="101"/>
+      <c r="AI66" s="101"/>
+      <c r="AJ66" s="101"/>
+      <c r="AK66" s="101"/>
+      <c r="AL66" s="101"/>
+      <c r="AM66" s="101"/>
+      <c r="AN66" s="101"/>
+      <c r="AO66" s="103"/>
+    </row>
+    <row r="67" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A67" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="142"/>
-      <c r="C73" s="142"/>
-      <c r="D73" s="143"/>
-      <c r="E73" s="145" t="s">
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="F73" s="144"/>
-      <c r="G73" s="144"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="145"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="148">
+        <f t="shared" ref="I67:I68" si="3">SUM(K67:AO67)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="133"/>
+      <c r="K67" s="104">
+        <f t="shared" ref="K67:AO67" si="4">SUM(K8:K66)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO67" s="104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A68" s="123"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="133"/>
+      <c r="E68" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="145"/>
+      <c r="G68" s="145"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="148">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="133"/>
+      <c r="K68" s="104">
+        <f t="shared" ref="K68:AO68" si="5">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K66),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO68" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" ht="12" customHeight="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+    </row>
+    <row r="70" spans="1:41" ht="15" customHeight="1">
+      <c r="A70" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="129"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="129"/>
+      <c r="G70" s="129"/>
+      <c r="H70" s="129"/>
+      <c r="I70" s="152">
+        <f t="shared" ref="I70:I76" si="6">SUM(K70:AO70)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="129"/>
+      <c r="K70" s="105">
+        <f t="shared" ref="K70:T76" si="7">SUMIFS(K$8:K$66,$A$8:$A$66,$E70)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="105">
+        <f t="shared" ref="U70:AD76" si="8">SUMIFS(U$8:U$66,$A$8:$A$66,$E70)</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD70" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="105">
+        <f t="shared" ref="AE70:AO76" si="9">SUMIFS(AE$8:AE$66,$A$8:$A$66,$E70)</f>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO70" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" ht="15" customHeight="1">
+      <c r="A71" s="129"/>
+      <c r="B71" s="129"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="129"/>
+      <c r="G71" s="129"/>
+      <c r="H71" s="129"/>
+      <c r="I71" s="152">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="129"/>
+      <c r="K71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD71" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO71" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" ht="15" customHeight="1">
+      <c r="A72" s="129"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="152">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="129"/>
+      <c r="K72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD72" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO72" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" s="120" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="129"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="129"/>
+      <c r="G73" s="129"/>
       <c r="H73" s="129"/>
-      <c r="I73" s="147">
-        <f t="shared" ref="I73:I74" si="2">SUM(K73:AO73)</f>
+      <c r="I73" s="152">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J73" s="129"/>
-      <c r="K73" s="104">
-        <f t="shared" ref="K73:AO73" si="3">SUM(K8:K72)</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO73" s="104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A74" s="135"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="144"/>
+      <c r="K73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD73" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO73" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" s="120" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="129"/>
-      <c r="E74" s="145" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="144"/>
-      <c r="G74" s="144"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
       <c r="H74" s="129"/>
-      <c r="I74" s="147">
-        <f t="shared" si="2"/>
+      <c r="I74" s="152">
+        <f t="shared" ref="I74" si="10">SUM(K74:AO74)</f>
         <v>0</v>
       </c>
       <c r="J74" s="129"/>
-      <c r="K74" s="104">
-        <f t="shared" ref="K74:AO74" si="4">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K72),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AN74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO74" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41" ht="12" customHeight="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="1"/>
-      <c r="AO75" s="1"/>
+      <c r="K74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD74" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO74" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" ht="15" customHeight="1">
+      <c r="A75" s="129"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="129"/>
+      <c r="I75" s="152">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="129"/>
+      <c r="K75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD75" s="105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:41" ht="15" customHeight="1">
-      <c r="A76" s="136" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="125"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="125"/>
-      <c r="E76" s="136"/>
-      <c r="F76" s="125"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="151">
-        <f t="shared" ref="I76:I80" si="5">SUM(K76:AO76)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="125"/>
-      <c r="K76" s="105">
-        <f t="shared" ref="K76:T80" si="6">SUMIFS(K$8:K$72,$A$8:$A$72,$E76)</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="105">
+      <c r="A76" s="129"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
+      <c r="H76" s="129"/>
+      <c r="I76" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M76" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q76" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R76" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S76" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T76" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U76" s="105">
-        <f t="shared" ref="U76:AD80" si="7">SUMIFS(U$8:U$72,$A$8:$A$72,$E76)</f>
-        <v>0</v>
-      </c>
-      <c r="V76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD76" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE76" s="105">
-        <f t="shared" ref="AE76:AO80" si="8">SUMIFS(AE$8:AE$72,$A$8:$A$72,$E76)</f>
-        <v>0</v>
-      </c>
-      <c r="AF76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN76" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO76" s="105">
-        <f t="shared" si="8"/>
+      <c r="J76" s="129"/>
+      <c r="K76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD76" s="106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN76" s="106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO76" s="106">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:41" ht="15" customHeight="1">
-      <c r="A77" s="125"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="151">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="125"/>
-      <c r="K77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO77" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" ht="15" customHeight="1">
-      <c r="A78" s="125"/>
-      <c r="B78" s="125"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
-      <c r="E78" s="136"/>
-      <c r="F78" s="125"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="151">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="125"/>
-      <c r="K78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T78" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD78" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO78" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41" ht="15" customHeight="1">
-      <c r="A79" s="125"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
-      <c r="E79" s="136"/>
-      <c r="F79" s="125"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="151">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="125"/>
-      <c r="K79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T79" s="105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD79" s="105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO79" s="105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:41" ht="15" customHeight="1">
-      <c r="A80" s="125"/>
-      <c r="B80" s="125"/>
-      <c r="C80" s="125"/>
-      <c r="D80" s="125"/>
-      <c r="E80" s="136"/>
-      <c r="F80" s="125"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="148">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="125"/>
-      <c r="K80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T80" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD80" s="106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO80" s="106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:41" ht="15" customHeight="1">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="149">
-        <f>SUM(I76:I80)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="125"/>
-      <c r="K81" s="108">
-        <f t="shared" ref="K81:AO81" si="9">SUM(K76:K80)</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AL81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AM81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN81" s="108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO81" s="108">
-        <f t="shared" si="9"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="150">
+        <f>SUM(I70:I76)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="129"/>
+      <c r="K77" s="108">
+        <f t="shared" ref="K77:AO77" si="11">SUM(K70:K76)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN77" s="108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO77" s="108">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="217">
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:J67"/>
+  <mergeCells count="203">
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="E64:H64"/>
     <mergeCell ref="I64:J64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="E65:H65"/>
     <mergeCell ref="I65:J65"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:J73"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:H62"/>
     <mergeCell ref="I62:J62"/>
@@ -12586,17 +12760,17 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="E72:H72"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
     <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I70:J70"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="E11:H11"/>
@@ -12613,18 +12787,18 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B66:D66"/>
     <mergeCell ref="B5:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A76:D80"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="A73:D74"/>
+    <mergeCell ref="A70:D76"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="A67:D68"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
@@ -12635,32 +12809,33 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B26:D26"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:AO74">
-    <cfRule type="expression" dxfId="23" priority="1">
+  <conditionalFormatting sqref="K5:AO68">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>IF(MONTH($B$3)&lt;&gt;MONTH(K$5),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:AO74">
-    <cfRule type="expression" dxfId="22" priority="2">
+  <conditionalFormatting sqref="K5:AO68">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF(WEEKDAY(K$5,2)=7,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:AO74">
-    <cfRule type="expression" dxfId="21" priority="3">
+  <conditionalFormatting sqref="K5:AO68">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>IF(WEEKDAY(K$5,2)=6,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:AO74">
-    <cfRule type="expression" dxfId="20" priority="4">
+  <conditionalFormatting sqref="K5:AO68">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>IF(K$7&lt;&gt;"",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E76:E80 A8:A71">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" sqref="A8:A65 E70:E76">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12692,12 +12867,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
@@ -12760,11 +12935,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
@@ -12916,24 +13091,24 @@
       <c r="AO4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="133" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="77">
         <f>$B$3</f>
         <v>42887</v>
@@ -13060,16 +13235,16 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="79">
         <f t="shared" ref="K6:AO6" si="1">K$5</f>
         <v>42887</v>
@@ -13196,16 +13371,16 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="7.5" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="80" t="s">
         <v>65</v>
       </c>
@@ -13244,20 +13419,20 @@
       <c r="A8" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="139">
+      <c r="B8" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140">
         <f t="shared" ref="I8:I14" si="2">SUM(K8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="85"/>
@@ -13294,20 +13469,20 @@
       <c r="A9" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="156" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="139">
+      <c r="B9" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="123"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
@@ -13342,18 +13517,18 @@
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
       <c r="A10" s="89"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="139">
+      <c r="B10" s="157"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="123"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="91"/>
       <c r="L10" s="86"/>
       <c r="M10" s="91"/>
@@ -13388,18 +13563,18 @@
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
       <c r="A11" s="93"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="139">
+      <c r="B11" s="157"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="123"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="91"/>
       <c r="L11" s="86"/>
       <c r="M11" s="91"/>
@@ -13434,18 +13609,18 @@
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
       <c r="A12" s="89"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="139">
+      <c r="B12" s="157"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="91"/>
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
@@ -13480,18 +13655,18 @@
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1">
       <c r="A13" s="89"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="139">
+      <c r="B13" s="157"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="91"/>
       <c r="L13" s="86"/>
       <c r="M13" s="91"/>
@@ -13526,18 +13701,18 @@
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
       <c r="A14" s="93"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="139">
+      <c r="B14" s="158"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="123"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="91"/>
       <c r="L14" s="86"/>
       <c r="M14" s="91"/>
@@ -13572,13 +13747,13 @@
     </row>
     <row r="15" spans="1:41" ht="12" customHeight="1">
       <c r="A15" s="99"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="100"/>
       <c r="J15" s="100"/>
       <c r="K15" s="101"/>
@@ -13614,23 +13789,23 @@
       <c r="AO15" s="103"/>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="145" t="s">
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="147">
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="148">
         <f t="shared" ref="I16:I17" si="3">SUM(K16:AO16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="129"/>
+      <c r="J16" s="133"/>
       <c r="K16" s="104">
         <f t="shared" ref="K16:AO16" si="4">SUM(K8:K15)</f>
         <v>0</v>
@@ -13757,21 +13932,21 @@
       </c>
     </row>
     <row r="17" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A17" s="135"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="145" t="s">
+      <c r="A17" s="123"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="147">
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="129"/>
+      <c r="J17" s="133"/>
       <c r="K17" s="104">
         <f t="shared" ref="K17:AO17" si="5">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K15),0)</f>
         <v>0</v>
@@ -13941,21 +14116,21 @@
       <c r="AO18" s="1"/>
     </row>
     <row r="19" spans="1:41" ht="15" customHeight="1">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="151">
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="152">
         <f t="shared" ref="I19:I23" si="6">SUM(K19:AO19)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="125"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="105">
         <f t="shared" ref="K19:AO19" si="7">SUMIFS(K$8:K$15,$A$8:$A$15,$E19)</f>
         <v>0</v>
@@ -14082,19 +14257,19 @@
       </c>
     </row>
     <row r="20" spans="1:41" ht="15" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="151">
+      <c r="A20" s="129"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="125"/>
+      <c r="J20" s="129"/>
       <c r="K20" s="105">
         <f t="shared" ref="K20:AO20" si="8">SUMIFS(K$8:K$15,$A$8:$A$15,$E20)</f>
         <v>0</v>
@@ -14221,19 +14396,19 @@
       </c>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="151">
+      <c r="A21" s="129"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="125"/>
+      <c r="J21" s="129"/>
       <c r="K21" s="105">
         <f t="shared" ref="K21:AO21" si="9">SUMIFS(K$8:K$15,$A$8:$A$15,$E21)</f>
         <v>0</v>
@@ -14360,19 +14535,19 @@
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="151">
+      <c r="A22" s="129"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="125"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="105">
         <f t="shared" ref="K22:AO22" si="10">SUMIFS(K$8:K$15,$A$8:$A$15,$E22)</f>
         <v>0</v>
@@ -14499,21 +14674,21 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="155" t="s">
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="148">
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="129"/>
       <c r="K23" s="106">
         <f t="shared" ref="K23:AO23" si="11">SUMIFS(K$8:K$15,$A$8:$A$15,$E23)</f>
         <v>0</v>
@@ -14648,11 +14823,11 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="107"/>
-      <c r="I24" s="149">
+      <c r="I24" s="150">
         <f>SUM(I19:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="125"/>
+      <c r="J24" s="129"/>
       <c r="K24" s="108">
         <f t="shared" ref="K24:AO24" si="12">SUM(K19:K23)</f>
         <v>0</v>
@@ -14828,22 +15003,22 @@
     <mergeCell ref="E12:H12"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:AO17">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>IF(MONTH($B$3)&lt;&gt;MONTH(K$5),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO17">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>IF(WEEKDAY(K$5,2)=7,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO17">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>IF(WEEKDAY(K$5,2)=6,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO17">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>IF(K$7&lt;&gt;"",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14884,12 +15059,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
@@ -14952,11 +15127,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
@@ -15108,24 +15283,24 @@
       <c r="AO4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="133" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="77">
         <f>$B$3</f>
         <v>42887</v>
@@ -15252,16 +15427,16 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="79">
         <f t="shared" ref="K6:AO6" si="1">K$5</f>
         <v>42887</v>
@@ -15388,16 +15563,16 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="7.5" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="80" t="s">
         <v>65</v>
       </c>
@@ -15436,20 +15611,20 @@
       <c r="A8" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="139">
+      <c r="B8" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140">
         <f t="shared" ref="I8:I14" si="2">SUM(K8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="85"/>
@@ -15484,18 +15659,18 @@
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1">
       <c r="A9" s="89"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="139">
+      <c r="B9" s="157"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="123"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
@@ -15530,18 +15705,18 @@
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
       <c r="A10" s="89"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="139">
+      <c r="B10" s="157"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="123"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="91"/>
       <c r="L10" s="86"/>
       <c r="M10" s="91"/>
@@ -15576,18 +15751,18 @@
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
       <c r="A11" s="93"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="139">
+      <c r="B11" s="157"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="123"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="91"/>
       <c r="L11" s="86"/>
       <c r="M11" s="91"/>
@@ -15622,18 +15797,18 @@
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
       <c r="A12" s="89"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="139">
+      <c r="B12" s="157"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="91"/>
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
@@ -15668,18 +15843,18 @@
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1">
       <c r="A13" s="89"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="139">
+      <c r="B13" s="157"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="91"/>
       <c r="L13" s="86"/>
       <c r="M13" s="91"/>
@@ -15714,18 +15889,18 @@
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
       <c r="A14" s="93"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="139">
+      <c r="B14" s="158"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="123"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="91"/>
       <c r="L14" s="86"/>
       <c r="M14" s="91"/>
@@ -15760,13 +15935,13 @@
     </row>
     <row r="15" spans="1:41" ht="12" customHeight="1">
       <c r="A15" s="99"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="100"/>
       <c r="J15" s="100"/>
       <c r="K15" s="101"/>
@@ -15802,23 +15977,23 @@
       <c r="AO15" s="103"/>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="145" t="s">
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="147">
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="148">
         <f t="shared" ref="I16:I17" si="3">SUM(K16:AO16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="129"/>
+      <c r="J16" s="133"/>
       <c r="K16" s="104">
         <f t="shared" ref="K16:AO16" si="4">SUM(K8:K15)</f>
         <v>0</v>
@@ -15945,21 +16120,21 @@
       </c>
     </row>
     <row r="17" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A17" s="135"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="145" t="s">
+      <c r="A17" s="123"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="147">
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="129"/>
+      <c r="J17" s="133"/>
       <c r="K17" s="104">
         <f t="shared" ref="K17:AO17" si="5">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K15),0)</f>
         <v>0</v>
@@ -16129,21 +16304,21 @@
       <c r="AO18" s="1"/>
     </row>
     <row r="19" spans="1:41" ht="15" customHeight="1">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="151">
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="152">
         <f t="shared" ref="I19:I23" si="6">SUM(K19:AO19)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="125"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="105">
         <f t="shared" ref="K19:AO19" si="7">SUMIFS(K$8:K$15,$A$8:$A$15,$E19)</f>
         <v>0</v>
@@ -16270,19 +16445,19 @@
       </c>
     </row>
     <row r="20" spans="1:41" ht="15" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="151">
+      <c r="A20" s="129"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="125"/>
+      <c r="J20" s="129"/>
       <c r="K20" s="105">
         <f t="shared" ref="K20:AO20" si="8">SUMIFS(K$8:K$15,$A$8:$A$15,$E20)</f>
         <v>0</v>
@@ -16409,19 +16584,19 @@
       </c>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="151">
+      <c r="A21" s="129"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="125"/>
+      <c r="J21" s="129"/>
       <c r="K21" s="105">
         <f t="shared" ref="K21:AO21" si="9">SUMIFS(K$8:K$15,$A$8:$A$15,$E21)</f>
         <v>0</v>
@@ -16548,19 +16723,19 @@
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="151">
+      <c r="A22" s="129"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="125"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="105">
         <f t="shared" ref="K22:AO22" si="10">SUMIFS(K$8:K$15,$A$8:$A$15,$E22)</f>
         <v>0</v>
@@ -16687,21 +16862,21 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="155" t="s">
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="148">
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="129"/>
       <c r="K23" s="106">
         <f t="shared" ref="K23:AO23" si="11">SUMIFS(K$8:K$15,$A$8:$A$15,$E23)</f>
         <v>0</v>
@@ -16836,11 +17011,11 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="107"/>
-      <c r="I24" s="149">
+      <c r="I24" s="150">
         <f>SUM(I19:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="125"/>
+      <c r="J24" s="129"/>
       <c r="K24" s="108">
         <f t="shared" ref="K24:AO24" si="12">SUM(K19:K23)</f>
         <v>0</v>
@@ -17016,22 +17191,22 @@
     <mergeCell ref="I20:J20"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:AO17">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>IF(MONTH($B$3)&lt;&gt;MONTH(K$5),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO17">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>IF(WEEKDAY(K$5,2)=7,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO17">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>IF(WEEKDAY(K$5,2)=6,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO17">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>IF(K$7&lt;&gt;"",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17072,12 +17247,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
@@ -17140,11 +17315,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
@@ -17296,24 +17471,24 @@
       <c r="AO4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="133" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="77">
         <f>$B$3</f>
         <v>42887</v>
@@ -17440,16 +17615,16 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="79">
         <f t="shared" ref="K6:AO6" si="1">K$5</f>
         <v>42887</v>
@@ -17576,16 +17751,16 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="7.5" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="80" t="s">
         <v>65</v>
       </c>
@@ -17622,24 +17797,24 @@
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1">
       <c r="A8" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="139">
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140">
         <f t="shared" ref="I8:I23" si="2">SUM(K8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="85"/>
@@ -17674,22 +17849,22 @@
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1">
       <c r="A9" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="138" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="139">
+        <v>81</v>
+      </c>
+      <c r="B9" s="157"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="123"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
       <c r="M9" s="86"/>
@@ -17724,22 +17899,22 @@
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
       <c r="A10" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="139">
+        <v>81</v>
+      </c>
+      <c r="B10" s="157"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="123"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
       <c r="M10" s="86"/>
@@ -17774,22 +17949,22 @@
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
       <c r="A11" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="139">
+        <v>81</v>
+      </c>
+      <c r="B11" s="157"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="123"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="90"/>
       <c r="L11" s="90"/>
       <c r="M11" s="86"/>
@@ -17824,20 +17999,20 @@
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
       <c r="A12" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="156"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="139">
+        <v>81</v>
+      </c>
+      <c r="B12" s="157"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="90"/>
       <c r="L12" s="90"/>
       <c r="M12" s="86"/>
@@ -17872,22 +18047,22 @@
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1">
       <c r="A13" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="156" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="139">
+        <v>81</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="90"/>
       <c r="L13" s="90"/>
       <c r="M13" s="86"/>
@@ -17922,22 +18097,22 @@
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
       <c r="A14" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="156" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="139">
+        <v>81</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="123"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
       <c r="M14" s="86"/>
@@ -17972,24 +18147,24 @@
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
       <c r="A15" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="156" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="139">
+        <v>81</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="123"/>
+      <c r="J15" s="127"/>
       <c r="K15" s="90"/>
       <c r="L15" s="90"/>
       <c r="M15" s="86"/>
@@ -18024,24 +18199,24 @@
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
       <c r="A16" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="139">
+        <v>81</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="123"/>
+      <c r="J16" s="127"/>
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
       <c r="M16" s="86"/>
@@ -18076,22 +18251,22 @@
     </row>
     <row r="17" spans="1:41" ht="22.5" customHeight="1">
       <c r="A17" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="156" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="139">
+        <v>81</v>
+      </c>
+      <c r="B17" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="125"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="123"/>
+      <c r="J17" s="127"/>
       <c r="K17" s="90"/>
       <c r="L17" s="90"/>
       <c r="M17" s="86"/>
@@ -18128,22 +18303,22 @@
       <c r="A18" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="138" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="139">
+      <c r="B18" s="157" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="125"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="123"/>
+      <c r="J18" s="127"/>
       <c r="K18" s="86"/>
       <c r="L18" s="86"/>
       <c r="M18" s="91"/>
@@ -18180,20 +18355,20 @@
       <c r="A19" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="139">
+      <c r="B19" s="157"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="123"/>
+      <c r="J19" s="127"/>
       <c r="K19" s="86"/>
       <c r="L19" s="86"/>
       <c r="M19" s="91"/>
@@ -18230,18 +18405,18 @@
       <c r="A20" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="156"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="139">
+      <c r="B20" s="157"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="123"/>
+      <c r="J20" s="127"/>
       <c r="K20" s="86"/>
       <c r="L20" s="90"/>
       <c r="M20" s="86"/>
@@ -18276,18 +18451,18 @@
     </row>
     <row r="21" spans="1:41" ht="22.5" customHeight="1">
       <c r="A21" s="83"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="139">
+      <c r="B21" s="157"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="123"/>
+      <c r="J21" s="127"/>
       <c r="K21" s="91"/>
       <c r="L21" s="86"/>
       <c r="M21" s="91"/>
@@ -18322,18 +18497,18 @@
     </row>
     <row r="22" spans="1:41" ht="22.5" customHeight="1">
       <c r="A22" s="89"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="139">
+      <c r="B22" s="157"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="123"/>
+      <c r="J22" s="127"/>
       <c r="K22" s="91"/>
       <c r="L22" s="86"/>
       <c r="M22" s="91"/>
@@ -18368,18 +18543,18 @@
     </row>
     <row r="23" spans="1:41" ht="22.5" customHeight="1">
       <c r="A23" s="93"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="139">
+      <c r="B23" s="157"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="123"/>
+      <c r="J23" s="127"/>
       <c r="K23" s="91"/>
       <c r="L23" s="86"/>
       <c r="M23" s="91"/>
@@ -18414,13 +18589,13 @@
     </row>
     <row r="24" spans="1:41" ht="12" customHeight="1">
       <c r="A24" s="99"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
       <c r="I24" s="100"/>
       <c r="J24" s="100"/>
       <c r="K24" s="101"/>
@@ -18456,23 +18631,23 @@
       <c r="AO24" s="103"/>
     </row>
     <row r="25" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="145" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="147">
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="148">
         <f t="shared" ref="I25:I26" si="3">SUM(K25:AO25)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="129"/>
+      <c r="J25" s="133"/>
       <c r="K25" s="104">
         <f t="shared" ref="K25:AO25" si="4">SUM(K8:K24)</f>
         <v>0</v>
@@ -18599,21 +18774,21 @@
       </c>
     </row>
     <row r="26" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A26" s="135"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="145" t="s">
+      <c r="A26" s="123"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="147">
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J26" s="129"/>
+      <c r="J26" s="133"/>
       <c r="K26" s="104">
         <f t="shared" ref="K26:AO26" si="5">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K24),0)</f>
         <v>0</v>
@@ -18783,23 +18958,23 @@
       <c r="AO27" s="1"/>
     </row>
     <row r="28" spans="1:41" ht="15" customHeight="1">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="151">
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="137" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="152">
         <f t="shared" ref="I28:I32" si="6">SUM(K28:AO28)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="125"/>
+      <c r="J28" s="129"/>
       <c r="K28" s="105">
         <f t="shared" ref="K28:AO28" si="7">SUMIFS(K$8:K$24,$A$8:$A$24,$E28)</f>
         <v>0</v>
@@ -18926,21 +19101,21 @@
       </c>
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1">
-      <c r="A29" s="125"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="136" t="s">
+      <c r="A29" s="129"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="151">
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J29" s="125"/>
+      <c r="J29" s="129"/>
       <c r="K29" s="105">
         <f t="shared" ref="K29:AO29" si="8">SUMIFS(K$8:K$24,$A$8:$A$24,$E29)</f>
         <v>0</v>
@@ -19067,19 +19242,19 @@
       </c>
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="151">
+      <c r="A30" s="129"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J30" s="125"/>
+      <c r="J30" s="129"/>
       <c r="K30" s="105">
         <f t="shared" ref="K30:AO30" si="9">SUMIFS(K$8:K$24,$A$8:$A$24,$E30)</f>
         <v>0</v>
@@ -19206,19 +19381,19 @@
       </c>
     </row>
     <row r="31" spans="1:41" ht="15" customHeight="1">
-      <c r="A31" s="125"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="151">
+      <c r="A31" s="129"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J31" s="125"/>
+      <c r="J31" s="129"/>
       <c r="K31" s="105">
         <f t="shared" ref="K31:AO31" si="10">SUMIFS(K$8:K$24,$A$8:$A$24,$E31)</f>
         <v>0</v>
@@ -19345,19 +19520,19 @@
       </c>
     </row>
     <row r="32" spans="1:41" ht="15" customHeight="1">
-      <c r="A32" s="125"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="148">
+      <c r="A32" s="129"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J32" s="125"/>
+      <c r="J32" s="129"/>
       <c r="K32" s="106">
         <f t="shared" ref="K32:AO32" si="11">SUMIFS(K$8:K$24,$A$8:$A$24,$E32)</f>
         <v>0</v>
@@ -19492,11 +19667,11 @@
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
       <c r="H33" s="107"/>
-      <c r="I33" s="149">
+      <c r="I33" s="150">
         <f>SUM(I28:I32)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="125"/>
+      <c r="J33" s="129"/>
       <c r="K33" s="108">
         <f t="shared" ref="K33:AO33" si="12">SUM(K28:K32)</f>
         <v>0</v>
@@ -19699,22 +19874,22 @@
     <mergeCell ref="B23:D23"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:AO26">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>IF(MONTH($B$3)&lt;&gt;MONTH(K$5),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO26">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>IF(WEEKDAY(K$5,2)=7,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO26">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>IF(WEEKDAY(K$5,2)=6,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO26">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>IF(K$7&lt;&gt;"",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19755,12 +19930,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
@@ -19823,11 +19998,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
@@ -19979,24 +20154,24 @@
       <c r="AO4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="133" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="77">
         <f>$B$3</f>
         <v>42887</v>
@@ -20123,16 +20298,16 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="79">
         <f t="shared" ref="K6:AO6" si="1">K$5</f>
         <v>42887</v>
@@ -20259,16 +20434,16 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="7.5" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="80" t="s">
         <v>65</v>
       </c>
@@ -20307,22 +20482,22 @@
       <c r="A8" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="156" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="139">
+      <c r="B8" s="157" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140">
         <f t="shared" ref="I8:I13" si="2">SUM(K8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="91"/>
       <c r="L8" s="91"/>
       <c r="M8" s="91"/>
@@ -20359,22 +20534,22 @@
       <c r="A9" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="156" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="139">
+      <c r="B9" s="157" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="123"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
@@ -20411,22 +20586,22 @@
       <c r="A10" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="139">
+      <c r="B10" s="157" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="123"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="86"/>
       <c r="L10" s="90"/>
       <c r="M10" s="86"/>
@@ -20463,22 +20638,22 @@
       <c r="A11" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="156" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="139">
+      <c r="B11" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="123"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="91"/>
       <c r="L11" s="91"/>
       <c r="M11" s="91"/>
@@ -20515,22 +20690,22 @@
       <c r="A12" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="156" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="139">
+      <c r="B12" s="157" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="125"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="91"/>
       <c r="L12" s="91"/>
       <c r="M12" s="91"/>
@@ -20567,22 +20742,22 @@
       <c r="A13" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="139">
+      <c r="B13" s="157" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
       <c r="M13" s="91"/>
@@ -20617,13 +20792,13 @@
     </row>
     <row r="14" spans="1:41" ht="12" customHeight="1">
       <c r="A14" s="99"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="100"/>
       <c r="J14" s="100"/>
       <c r="K14" s="101"/>
@@ -20659,23 +20834,23 @@
       <c r="AO14" s="103"/>
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="145" t="s">
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="147">
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="148">
         <f t="shared" ref="I15:I16" si="3">SUM(K15:AO15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="129"/>
+      <c r="J15" s="133"/>
       <c r="K15" s="104">
         <f t="shared" ref="K15:AO15" si="4">SUM(K8:K14)</f>
         <v>0</v>
@@ -20802,21 +20977,21 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="135"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="145" t="s">
+      <c r="A16" s="123"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="147">
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="129"/>
+      <c r="J16" s="133"/>
       <c r="K16" s="104">
         <f t="shared" ref="K16:AO16" si="5">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K14),0)</f>
         <v>0</v>
@@ -20986,21 +21161,21 @@
       <c r="AO17" s="1"/>
     </row>
     <row r="18" spans="1:41" ht="15" customHeight="1">
-      <c r="A18" s="136" t="s">
+      <c r="A18" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="151">
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="152">
         <f t="shared" ref="I18:I22" si="6">SUM(K18:AO18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="125"/>
+      <c r="J18" s="129"/>
       <c r="K18" s="105">
         <f t="shared" ref="K18:AO18" si="7">SUMIFS(K$8:K$14,$A$8:$A$14,$E18)</f>
         <v>0</v>
@@ -21127,19 +21302,19 @@
       </c>
     </row>
     <row r="19" spans="1:41" ht="15" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="151">
+      <c r="A19" s="129"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J19" s="125"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="105">
         <f t="shared" ref="K19:AO19" si="8">SUMIFS(K$8:K$14,$A$8:$A$14,$E19)</f>
         <v>0</v>
@@ -21266,19 +21441,19 @@
       </c>
     </row>
     <row r="20" spans="1:41" ht="15" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="151">
+      <c r="A20" s="129"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="125"/>
+      <c r="J20" s="129"/>
       <c r="K20" s="105">
         <f t="shared" ref="K20:AO20" si="9">SUMIFS(K$8:K$14,$A$8:$A$14,$E20)</f>
         <v>0</v>
@@ -21405,19 +21580,19 @@
       </c>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="151">
+      <c r="A21" s="129"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="125"/>
+      <c r="J21" s="129"/>
       <c r="K21" s="105">
         <f t="shared" ref="K21:AO21" si="10">SUMIFS(K$8:K$14,$A$8:$A$14,$E21)</f>
         <v>0</v>
@@ -21544,21 +21719,21 @@
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="155" t="s">
+      <c r="A22" s="129"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="148">
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="125"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="106">
         <f t="shared" ref="K22:AO22" si="11">SUMIFS(K$8:K$14,$A$8:$A$14,$E22)</f>
         <v>0</v>
@@ -21693,11 +21868,11 @@
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
       <c r="H23" s="107"/>
-      <c r="I23" s="149">
+      <c r="I23" s="150">
         <f>SUM(I18:I22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="129"/>
       <c r="K23" s="108">
         <f t="shared" ref="K23:AO23" si="12">SUM(K18:K22)</f>
         <v>0</v>
@@ -21870,22 +22045,22 @@
     <mergeCell ref="E15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:AO16">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>IF(MONTH($B$3)&lt;&gt;MONTH(K$5),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO16">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>IF(WEEKDAY(K$5,2)=7,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO16">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>IF(WEEKDAY(K$5,2)=6,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO16">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>IF(K$7&lt;&gt;"",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21926,12 +22101,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
@@ -21994,11 +22169,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
@@ -22150,24 +22325,24 @@
       <c r="AO4" s="76"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="133" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="143"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="77">
         <f>$B$3</f>
         <v>42887</v>
@@ -22294,16 +22469,16 @@
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="79">
         <f t="shared" ref="K6:AO6" si="1">K$5</f>
         <v>42887</v>
@@ -22430,16 +22605,16 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="7.5" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="129"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="80" t="s">
         <v>65</v>
       </c>
@@ -22478,20 +22653,20 @@
       <c r="A8" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="139">
+      <c r="B8" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="140">
         <f t="shared" ref="I8:I16" si="2">SUM(K8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="123"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
       <c r="M8" s="85"/>
@@ -22528,20 +22703,20 @@
       <c r="A9" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="139">
+      <c r="B9" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="123"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
@@ -22578,20 +22753,20 @@
       <c r="A10" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="139">
+      <c r="B10" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="125"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="123"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
       <c r="M10" s="91"/>
@@ -22626,22 +22801,22 @@
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
       <c r="A11" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="139">
+      <c r="C11" s="125"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="123"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="86"/>
       <c r="L11" s="90"/>
       <c r="M11" s="86"/>
@@ -22676,20 +22851,20 @@
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
       <c r="A12" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="139">
+        <v>100</v>
+      </c>
+      <c r="B12" s="138"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
@@ -22724,20 +22899,20 @@
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1">
       <c r="A13" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="137"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="139">
+        <v>100</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
       <c r="M13" s="86"/>
@@ -22774,18 +22949,18 @@
       <c r="A14" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="139">
+      <c r="B14" s="138"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="123"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="86"/>
       <c r="L14" s="90"/>
       <c r="M14" s="86"/>
@@ -22822,18 +22997,18 @@
       <c r="A15" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="139">
+      <c r="B15" s="138"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="123"/>
+      <c r="J15" s="127"/>
       <c r="K15" s="91"/>
       <c r="L15" s="91"/>
       <c r="M15" s="91"/>
@@ -22868,18 +23043,18 @@
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
       <c r="A16" s="93"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="139">
+      <c r="B16" s="158"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="123"/>
+      <c r="J16" s="127"/>
       <c r="K16" s="91"/>
       <c r="L16" s="86"/>
       <c r="M16" s="91"/>
@@ -22914,15 +23089,15 @@
     </row>
     <row r="17" spans="1:41" ht="12" customHeight="1">
       <c r="A17" s="99"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="121"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="125"/>
       <c r="K17" s="101"/>
       <c r="L17" s="101"/>
       <c r="M17" s="101"/>
@@ -22956,23 +23131,23 @@
       <c r="AO17" s="103"/>
     </row>
     <row r="18" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="145" t="s">
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="147">
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="148">
         <f t="shared" ref="I18:I19" si="3">SUM(K18:AO18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="129"/>
+      <c r="J18" s="133"/>
       <c r="K18" s="104">
         <f t="shared" ref="K18:AO18" si="4">SUM(K8:K17)</f>
         <v>0</v>
@@ -23099,21 +23274,21 @@
       </c>
     </row>
     <row r="19" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A19" s="135"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="145" t="s">
+      <c r="A19" s="123"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="147">
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="129"/>
+      <c r="J19" s="133"/>
       <c r="K19" s="104">
         <f t="shared" ref="K19:AO19" si="5">IF(OR(WEEKDAY(K$5)=1,WEEKDAY(K$5)=7,K$7="x"), SUM(K8:K17),0)</f>
         <v>0</v>
@@ -23248,8 +23423,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="125"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="129"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -23283,21 +23458,21 @@
       <c r="AO20" s="1"/>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="151">
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="152">
         <f t="shared" ref="I21:I25" si="6">SUM(K21:AO21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="125"/>
+      <c r="J21" s="129"/>
       <c r="K21" s="105">
         <f t="shared" ref="K21:AO21" si="7">SUMIFS(K$8:K$17,$A$8:$A$17,$E21)</f>
         <v>0</v>
@@ -23424,19 +23599,19 @@
       </c>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="151">
+      <c r="A22" s="129"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="152">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="125"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="105">
         <f t="shared" ref="K22:AO22" si="8">SUMIFS(K$8:K$17,$A$8:$A$17,$E22)</f>
         <v>0</v>
@@ -23563,21 +23738,21 @@
       </c>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="155" t="s">
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="148">
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23" s="125"/>
+      <c r="J23" s="129"/>
       <c r="K23" s="106">
         <f t="shared" ref="K23:AO23" si="9">SUMIFS(K$8:K$17,$A$8:$A$17,$E23)</f>
         <v>0</v>
@@ -23704,21 +23879,21 @@
       </c>
     </row>
     <row r="24" spans="1:41" ht="15" customHeight="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="155" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="148">
+      <c r="A24" s="129"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24" s="125"/>
+      <c r="J24" s="129"/>
       <c r="K24" s="106">
         <f t="shared" ref="K24:AO24" si="10">SUMIFS(K$8:K$17,$A$8:$A$17,$E24)</f>
         <v>0</v>
@@ -23845,21 +24020,21 @@
       </c>
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="155" t="s">
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="148">
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="149">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J25" s="125"/>
+      <c r="J25" s="129"/>
       <c r="K25" s="106">
         <f t="shared" ref="K25:AO25" si="11">SUMIFS(K$8:K$17,$A$8:$A$17,$E25)</f>
         <v>0</v>
@@ -23994,11 +24169,11 @@
       <c r="F26" s="53"/>
       <c r="G26" s="53"/>
       <c r="H26" s="107"/>
-      <c r="I26" s="149">
+      <c r="I26" s="150">
         <f>SUM(I21:I25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="125"/>
+      <c r="J26" s="129"/>
       <c r="K26" s="108">
         <f t="shared" ref="K26:AO26" si="12">SUM(K21:K25)</f>
         <v>0</v>
@@ -24182,22 +24357,22 @@
     <mergeCell ref="I14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:AO19">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>IF(MONTH($B$3)&lt;&gt;MONTH(K$5),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO19">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>IF(WEEKDAY(K$5,2)=7,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO19">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>IF(WEEKDAY(K$5,2)=6,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AO19">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>IF(K$7&lt;&gt;"",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
